--- a/BackTest/2020-01-13 BackTest ETC.xlsx
+++ b/BackTest/2020-01-13 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>1302.22571854789</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1682.296064049367</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1581.396064049367</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1581.396064049367</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1581.396064049367</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>1231.396064049367</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1100.272664049367</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>900.2726640493672</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1138.338463974371</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1264.638463974371</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1971.694997845906</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1871.694997845906</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1973.794997845906</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2498.765485790264</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2398.765485790264</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2398.765485790264</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2398.765485790264</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>3090.215685790264</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>4138.976585790264</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3592.830185790264</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3592.830185790264</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3604.079685790264</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3544.069985790264</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3631.790385790264</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>3551.778585790264</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3551.778585790264</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3535.559785790264</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3592.074885790264</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3585.574885790264</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3537.903485790263</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3437.903485790263</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3302.703485790264</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3407.603485790264</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>2958.403585790264</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>2958.403585790264</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>2958.403585790264</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>2857.903585790264</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2956.003585790264</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>3114.818685790263</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>3122.786085790263</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>3476.744285790263</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3279.344285790263</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3272.577085790263</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3518.589985790264</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>3510.278685790264</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>3126.864885790264</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>3126.864885790264</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>2270.106585790264</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>3586.847085790264</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>3726.224485790264</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4842.394885790263</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4872.996285790263</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4872.996285790263</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4847.996285790263</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4648.667185790263</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>4532.426685790263</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>4582.881685790263</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>4573.905385790263</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>4616.109785790262</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>4516.110385790263</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>5064.944985790263</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>5065.124985790263</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>4923.570085790263</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>4844.572785790263</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4830.129485790263</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>4834.569385790263</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>4736.552985790263</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>4291.219085790263</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>4291.219085790263</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>4145.848885790263</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>4145.848885790263</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>3481.815385790263</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>3479.004285790263</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>3528.835285790263</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>3551.250485790263</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>4173.539085790263</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>4233.718885790263</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>4231.939485790263</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>4231.939485790263</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>4166.907785790263</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>4430.907785790263</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>4189.932885790263</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>4073.349985790263</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>3399.936785790263</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>2968.136785790263</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>3048.136785790263</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>3048.136785790263</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>3007.846785790263</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>3007.846785790263</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>2692.405485790263</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>2481.917085790263</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>2223.223685790263</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>3225.531185790262</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>3095.572485790262</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>3095.572485790262</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>3095.572485790262</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>3121.472485790262</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>2089.434064779204</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>2048.160864779204</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>1897.143464779204</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>1875.710764779204</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>1747.611364779204</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1960.653964779204</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1960.653964779204</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1960.653964779204</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>2145.516164779204</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1931.395264779204</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -11275,10 +11275,14 @@
         <v>386.8361696670246</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>6225</v>
+      </c>
+      <c r="J330" t="n">
+        <v>6225</v>
+      </c>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
@@ -11308,11 +11312,19 @@
         <v>386.8361696670246</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>6240</v>
+      </c>
+      <c r="J331" t="n">
+        <v>6225</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +11356,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>6225</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -14806,1638 +14824,1492 @@
         <v>2496.877931317091</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>6185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C438" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D438" t="n">
+        <v>6210</v>
+      </c>
+      <c r="E438" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F438" t="n">
+        <v>16.087</v>
+      </c>
+      <c r="G438" t="n">
+        <v>2512.964931317091</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>6215</v>
+      </c>
+      <c r="C439" t="n">
+        <v>6215</v>
+      </c>
+      <c r="D439" t="n">
+        <v>6215</v>
+      </c>
+      <c r="E439" t="n">
+        <v>6215</v>
+      </c>
+      <c r="F439" t="n">
+        <v>2.3377</v>
+      </c>
+      <c r="G439" t="n">
+        <v>2515.302631317091</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>6215</v>
+      </c>
+      <c r="C440" t="n">
+        <v>6215</v>
+      </c>
+      <c r="D440" t="n">
+        <v>6215</v>
+      </c>
+      <c r="E440" t="n">
+        <v>6215</v>
+      </c>
+      <c r="F440" t="n">
+        <v>6.0996</v>
+      </c>
+      <c r="G440" t="n">
+        <v>2515.302631317091</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>6215</v>
+      </c>
+      <c r="C441" t="n">
+        <v>6215</v>
+      </c>
+      <c r="D441" t="n">
+        <v>6215</v>
+      </c>
+      <c r="E441" t="n">
+        <v>6215</v>
+      </c>
+      <c r="F441" t="n">
+        <v>3.9004</v>
+      </c>
+      <c r="G441" t="n">
+        <v>2515.302631317091</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>6210</v>
+      </c>
+      <c r="C442" t="n">
+        <v>6215</v>
+      </c>
+      <c r="D442" t="n">
+        <v>6215</v>
+      </c>
+      <c r="E442" t="n">
+        <v>6210</v>
+      </c>
+      <c r="F442" t="n">
+        <v>12.6686</v>
+      </c>
+      <c r="G442" t="n">
+        <v>2515.302631317091</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C443" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D443" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E443" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F443" t="n">
+        <v>254.122</v>
+      </c>
+      <c r="G443" t="n">
+        <v>2261.180631317091</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>6210</v>
+      </c>
+      <c r="C444" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D444" t="n">
+        <v>6210</v>
+      </c>
+      <c r="E444" t="n">
+        <v>6210</v>
+      </c>
+      <c r="F444" t="n">
+        <v>30.5137</v>
+      </c>
+      <c r="G444" t="n">
+        <v>2291.694331317091</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C445" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D445" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E445" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F445" t="n">
+        <v>80.301</v>
+      </c>
+      <c r="G445" t="n">
+        <v>2211.393331317091</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>6195</v>
+      </c>
+      <c r="C446" t="n">
+        <v>6195</v>
+      </c>
+      <c r="D446" t="n">
+        <v>6195</v>
+      </c>
+      <c r="E446" t="n">
+        <v>6195</v>
+      </c>
+      <c r="F446" t="n">
+        <v>4.9875</v>
+      </c>
+      <c r="G446" t="n">
+        <v>2206.405831317091</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>6210</v>
+      </c>
+      <c r="C447" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D447" t="n">
+        <v>6210</v>
+      </c>
+      <c r="E447" t="n">
+        <v>6210</v>
+      </c>
+      <c r="F447" t="n">
+        <v>29.4031</v>
+      </c>
+      <c r="G447" t="n">
+        <v>2235.808931317091</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>6210</v>
+      </c>
+      <c r="C448" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D448" t="n">
+        <v>6210</v>
+      </c>
+      <c r="E448" t="n">
+        <v>6210</v>
+      </c>
+      <c r="F448" t="n">
+        <v>77.6649</v>
+      </c>
+      <c r="G448" t="n">
+        <v>2235.808931317091</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>6215</v>
+      </c>
+      <c r="C449" t="n">
+        <v>6215</v>
+      </c>
+      <c r="D449" t="n">
+        <v>6215</v>
+      </c>
+      <c r="E449" t="n">
+        <v>6215</v>
+      </c>
+      <c r="F449" t="n">
+        <v>336.5867</v>
+      </c>
+      <c r="G449" t="n">
+        <v>2572.395631317091</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>6220</v>
+      </c>
+      <c r="C450" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D450" t="n">
+        <v>6220</v>
+      </c>
+      <c r="E450" t="n">
+        <v>6220</v>
+      </c>
+      <c r="F450" t="n">
+        <v>40.992</v>
+      </c>
+      <c r="G450" t="n">
+        <v>2613.387631317091</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C451" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D451" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E451" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F451" t="n">
+        <v>34.168</v>
+      </c>
+      <c r="G451" t="n">
+        <v>2579.219631317091</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C452" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D452" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E452" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F452" t="n">
+        <v>34.4021</v>
+      </c>
+      <c r="G452" t="n">
+        <v>2579.219631317091</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>6215</v>
+      </c>
+      <c r="C453" t="n">
+        <v>6215</v>
+      </c>
+      <c r="D453" t="n">
+        <v>6215</v>
+      </c>
+      <c r="E453" t="n">
+        <v>6215</v>
+      </c>
+      <c r="F453" t="n">
+        <v>222.2568</v>
+      </c>
+      <c r="G453" t="n">
+        <v>2801.476431317091</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>6215</v>
+      </c>
+      <c r="C454" t="n">
+        <v>6215</v>
+      </c>
+      <c r="D454" t="n">
+        <v>6215</v>
+      </c>
+      <c r="E454" t="n">
+        <v>6215</v>
+      </c>
+      <c r="F454" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G454" t="n">
+        <v>2801.476431317091</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C455" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D455" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E455" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F455" t="n">
+        <v>51.7123</v>
+      </c>
+      <c r="G455" t="n">
+        <v>2749.764131317091</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>6215</v>
+      </c>
+      <c r="C456" t="n">
+        <v>6215</v>
+      </c>
+      <c r="D456" t="n">
+        <v>6215</v>
+      </c>
+      <c r="E456" t="n">
+        <v>6215</v>
+      </c>
+      <c r="F456" t="n">
+        <v>28.0002</v>
+      </c>
+      <c r="G456" t="n">
+        <v>2777.764331317091</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C457" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D457" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E457" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F457" t="n">
+        <v>568.0196999999999</v>
+      </c>
+      <c r="G457" t="n">
+        <v>2209.744631317091</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C458" t="n">
+        <v>6195</v>
+      </c>
+      <c r="D458" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E458" t="n">
+        <v>6195</v>
+      </c>
+      <c r="F458" t="n">
+        <v>225.2294</v>
+      </c>
+      <c r="G458" t="n">
+        <v>1984.515231317091</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>6190</v>
+      </c>
+      <c r="C459" t="n">
+        <v>6190</v>
+      </c>
+      <c r="D459" t="n">
+        <v>6190</v>
+      </c>
+      <c r="E459" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F459" t="n">
+        <v>110</v>
+      </c>
+      <c r="G459" t="n">
+        <v>1874.515231317091</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C460" t="n">
+        <v>6180</v>
+      </c>
+      <c r="D460" t="n">
+        <v>6180</v>
+      </c>
+      <c r="E460" t="n">
+        <v>6180</v>
+      </c>
+      <c r="F460" t="n">
+        <v>68.34220000000001</v>
+      </c>
+      <c r="G460" t="n">
+        <v>1806.173031317091</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>6175</v>
+      </c>
+      <c r="C461" t="n">
+        <v>6175</v>
+      </c>
+      <c r="D461" t="n">
+        <v>6175</v>
+      </c>
+      <c r="E461" t="n">
+        <v>6175</v>
+      </c>
+      <c r="F461" t="n">
+        <v>13.4776</v>
+      </c>
+      <c r="G461" t="n">
+        <v>1792.695431317091</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C462" t="n">
+        <v>6180</v>
+      </c>
+      <c r="D462" t="n">
+        <v>6180</v>
+      </c>
+      <c r="E462" t="n">
+        <v>6180</v>
+      </c>
+      <c r="F462" t="n">
+        <v>2.5317</v>
+      </c>
+      <c r="G462" t="n">
+        <v>1795.227131317091</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>6190</v>
+      </c>
+      <c r="C463" t="n">
+        <v>6190</v>
+      </c>
+      <c r="D463" t="n">
+        <v>6190</v>
+      </c>
+      <c r="E463" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F463" t="n">
+        <v>25</v>
+      </c>
+      <c r="G463" t="n">
+        <v>1820.227131317091</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C464" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D464" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E464" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F464" t="n">
+        <v>6.6626</v>
+      </c>
+      <c r="G464" t="n">
+        <v>1826.889731317091</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C465" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D465" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E465" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F465" t="n">
+        <v>3.4389</v>
+      </c>
+      <c r="G465" t="n">
+        <v>1826.889731317091</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>6190</v>
+      </c>
+      <c r="C466" t="n">
+        <v>6190</v>
+      </c>
+      <c r="D466" t="n">
+        <v>6190</v>
+      </c>
+      <c r="E466" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F466" t="n">
+        <v>11.1458</v>
+      </c>
+      <c r="G466" t="n">
+        <v>1815.743931317091</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C467" t="n">
+        <v>6180</v>
+      </c>
+      <c r="D467" t="n">
+        <v>6180</v>
+      </c>
+      <c r="E467" t="n">
+        <v>6180</v>
+      </c>
+      <c r="F467" t="n">
+        <v>23.6971</v>
+      </c>
+      <c r="G467" t="n">
+        <v>1792.046831317091</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C468" t="n">
+        <v>6180</v>
+      </c>
+      <c r="D468" t="n">
+        <v>6180</v>
+      </c>
+      <c r="E468" t="n">
+        <v>6180</v>
+      </c>
+      <c r="F468" t="n">
+        <v>203.3029</v>
+      </c>
+      <c r="G468" t="n">
+        <v>1792.046831317091</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C469" t="n">
+        <v>6180</v>
+      </c>
+      <c r="D469" t="n">
+        <v>6180</v>
+      </c>
+      <c r="E469" t="n">
+        <v>6180</v>
+      </c>
+      <c r="F469" t="n">
+        <v>86.699</v>
+      </c>
+      <c r="G469" t="n">
+        <v>1792.046831317091</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>6170</v>
+      </c>
+      <c r="C470" t="n">
+        <v>6170</v>
+      </c>
+      <c r="D470" t="n">
+        <v>6170</v>
+      </c>
+      <c r="E470" t="n">
+        <v>6170</v>
+      </c>
+      <c r="F470" t="n">
+        <v>174.0706</v>
+      </c>
+      <c r="G470" t="n">
+        <v>1617.976231317091</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>6170</v>
+      </c>
+      <c r="C471" t="n">
+        <v>6170</v>
+      </c>
+      <c r="D471" t="n">
+        <v>6170</v>
+      </c>
+      <c r="E471" t="n">
+        <v>6170</v>
+      </c>
+      <c r="F471" t="n">
+        <v>151.1743</v>
+      </c>
+      <c r="G471" t="n">
+        <v>1617.976231317091</v>
+      </c>
+      <c r="H471" t="n">
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>6170</v>
+      </c>
+      <c r="J471" t="n">
+        <v>6170</v>
+      </c>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C472" t="n">
+        <v>6180</v>
+      </c>
+      <c r="D472" t="n">
+        <v>6180</v>
+      </c>
+      <c r="E472" t="n">
+        <v>6180</v>
+      </c>
+      <c r="F472" t="n">
+        <v>50</v>
+      </c>
+      <c r="G472" t="n">
+        <v>1667.976231317091</v>
+      </c>
+      <c r="H472" t="n">
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>6170</v>
+      </c>
+      <c r="J472" t="n">
+        <v>6170</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C473" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D473" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E473" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F473" t="n">
+        <v>5</v>
+      </c>
+      <c r="G473" t="n">
+        <v>1672.976231317091</v>
+      </c>
+      <c r="H473" t="n">
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>6180</v>
+      </c>
+      <c r="J473" t="n">
+        <v>6170</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C474" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D474" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E474" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F474" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G474" t="n">
+        <v>1672.976231317091</v>
+      </c>
+      <c r="H474" t="n">
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>6205</v>
+      </c>
+      <c r="J474" t="n">
+        <v>6205</v>
+      </c>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C475" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D475" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E475" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F475" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="G475" t="n">
+        <v>1571.776231317091</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>6205</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>6190</v>
+      </c>
+      <c r="C476" t="n">
+        <v>6190</v>
+      </c>
+      <c r="D476" t="n">
+        <v>6190</v>
+      </c>
+      <c r="E476" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F476" t="n">
+        <v>115.1276</v>
+      </c>
+      <c r="G476" t="n">
+        <v>1456.648631317091</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>6205</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C477" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D477" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E477" t="n">
+        <v>6195</v>
+      </c>
+      <c r="F477" t="n">
+        <v>1218.077</v>
+      </c>
+      <c r="G477" t="n">
+        <v>2674.725631317091</v>
+      </c>
+      <c r="H477" t="n">
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>6190</v>
+      </c>
+      <c r="J477" t="n">
+        <v>6190</v>
+      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C478" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D478" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E478" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F478" t="n">
+        <v>189.9003</v>
+      </c>
+      <c r="G478" t="n">
+        <v>2484.825331317091</v>
+      </c>
+      <c r="H478" t="n">
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>6205</v>
+      </c>
+      <c r="J478" t="n">
+        <v>6190</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C479" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D479" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E479" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="G479" t="n">
+        <v>2484.825331317091</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>6190</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C480" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D480" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E480" t="n">
+        <v>6195</v>
+      </c>
+      <c r="F480" t="n">
+        <v>432.7564</v>
+      </c>
+      <c r="G480" t="n">
+        <v>2484.825331317091</v>
+      </c>
+      <c r="H480" t="n">
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>6200</v>
+      </c>
+      <c r="J480" t="n">
+        <v>6190</v>
+      </c>
+      <c r="K480" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C438" t="n">
-        <v>6210</v>
-      </c>
-      <c r="D438" t="n">
-        <v>6210</v>
-      </c>
-      <c r="E438" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F438" t="n">
-        <v>16.087</v>
-      </c>
-      <c r="G438" t="n">
-        <v>2512.964931317091</v>
-      </c>
-      <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>6215</v>
-      </c>
-      <c r="C439" t="n">
-        <v>6215</v>
-      </c>
-      <c r="D439" t="n">
-        <v>6215</v>
-      </c>
-      <c r="E439" t="n">
-        <v>6215</v>
-      </c>
-      <c r="F439" t="n">
-        <v>2.3377</v>
-      </c>
-      <c r="G439" t="n">
-        <v>2515.302631317091</v>
-      </c>
-      <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>6210</v>
-      </c>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>6215</v>
-      </c>
-      <c r="C440" t="n">
-        <v>6215</v>
-      </c>
-      <c r="D440" t="n">
-        <v>6215</v>
-      </c>
-      <c r="E440" t="n">
-        <v>6215</v>
-      </c>
-      <c r="F440" t="n">
-        <v>6.0996</v>
-      </c>
-      <c r="G440" t="n">
-        <v>2515.302631317091</v>
-      </c>
-      <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>6215</v>
-      </c>
-      <c r="C441" t="n">
-        <v>6215</v>
-      </c>
-      <c r="D441" t="n">
-        <v>6215</v>
-      </c>
-      <c r="E441" t="n">
-        <v>6215</v>
-      </c>
-      <c r="F441" t="n">
-        <v>3.9004</v>
-      </c>
-      <c r="G441" t="n">
-        <v>2515.302631317091</v>
-      </c>
-      <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>6210</v>
-      </c>
-      <c r="C442" t="n">
-        <v>6215</v>
-      </c>
-      <c r="D442" t="n">
-        <v>6215</v>
-      </c>
-      <c r="E442" t="n">
-        <v>6210</v>
-      </c>
-      <c r="F442" t="n">
-        <v>12.6686</v>
-      </c>
-      <c r="G442" t="n">
-        <v>2515.302631317091</v>
-      </c>
-      <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C443" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D443" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E443" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F443" t="n">
-        <v>254.122</v>
-      </c>
-      <c r="G443" t="n">
-        <v>2261.180631317091</v>
-      </c>
-      <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>6210</v>
-      </c>
-      <c r="C444" t="n">
-        <v>6210</v>
-      </c>
-      <c r="D444" t="n">
-        <v>6210</v>
-      </c>
-      <c r="E444" t="n">
-        <v>6210</v>
-      </c>
-      <c r="F444" t="n">
-        <v>30.5137</v>
-      </c>
-      <c r="G444" t="n">
-        <v>2291.694331317091</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C445" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D445" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E445" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F445" t="n">
-        <v>80.301</v>
-      </c>
-      <c r="G445" t="n">
-        <v>2211.393331317091</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>6195</v>
-      </c>
-      <c r="C446" t="n">
-        <v>6195</v>
-      </c>
-      <c r="D446" t="n">
-        <v>6195</v>
-      </c>
-      <c r="E446" t="n">
-        <v>6195</v>
-      </c>
-      <c r="F446" t="n">
-        <v>4.9875</v>
-      </c>
-      <c r="G446" t="n">
-        <v>2206.405831317091</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>6210</v>
-      </c>
-      <c r="C447" t="n">
-        <v>6210</v>
-      </c>
-      <c r="D447" t="n">
-        <v>6210</v>
-      </c>
-      <c r="E447" t="n">
-        <v>6210</v>
-      </c>
-      <c r="F447" t="n">
-        <v>29.4031</v>
-      </c>
-      <c r="G447" t="n">
-        <v>2235.808931317091</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>6210</v>
-      </c>
-      <c r="C448" t="n">
-        <v>6210</v>
-      </c>
-      <c r="D448" t="n">
-        <v>6210</v>
-      </c>
-      <c r="E448" t="n">
-        <v>6210</v>
-      </c>
-      <c r="F448" t="n">
-        <v>77.6649</v>
-      </c>
-      <c r="G448" t="n">
-        <v>2235.808931317091</v>
-      </c>
-      <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>6215</v>
-      </c>
-      <c r="C449" t="n">
-        <v>6215</v>
-      </c>
-      <c r="D449" t="n">
-        <v>6215</v>
-      </c>
-      <c r="E449" t="n">
-        <v>6215</v>
-      </c>
-      <c r="F449" t="n">
-        <v>336.5867</v>
-      </c>
-      <c r="G449" t="n">
-        <v>2572.395631317091</v>
-      </c>
-      <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>6220</v>
-      </c>
-      <c r="C450" t="n">
-        <v>6220</v>
-      </c>
-      <c r="D450" t="n">
-        <v>6220</v>
-      </c>
-      <c r="E450" t="n">
-        <v>6220</v>
-      </c>
-      <c r="F450" t="n">
-        <v>40.992</v>
-      </c>
-      <c r="G450" t="n">
-        <v>2613.387631317091</v>
-      </c>
-      <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C451" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D451" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E451" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F451" t="n">
-        <v>34.168</v>
-      </c>
-      <c r="G451" t="n">
-        <v>2579.219631317091</v>
-      </c>
-      <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C452" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D452" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E452" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F452" t="n">
-        <v>34.4021</v>
-      </c>
-      <c r="G452" t="n">
-        <v>2579.219631317091</v>
-      </c>
-      <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>6215</v>
-      </c>
-      <c r="C453" t="n">
-        <v>6215</v>
-      </c>
-      <c r="D453" t="n">
-        <v>6215</v>
-      </c>
-      <c r="E453" t="n">
-        <v>6215</v>
-      </c>
-      <c r="F453" t="n">
-        <v>222.2568</v>
-      </c>
-      <c r="G453" t="n">
-        <v>2801.476431317091</v>
-      </c>
-      <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>6215</v>
-      </c>
-      <c r="C454" t="n">
-        <v>6215</v>
-      </c>
-      <c r="D454" t="n">
-        <v>6215</v>
-      </c>
-      <c r="E454" t="n">
-        <v>6215</v>
-      </c>
-      <c r="F454" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G454" t="n">
-        <v>2801.476431317091</v>
-      </c>
-      <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C455" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D455" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E455" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F455" t="n">
-        <v>51.7123</v>
-      </c>
-      <c r="G455" t="n">
-        <v>2749.764131317091</v>
-      </c>
-      <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>6215</v>
-      </c>
-      <c r="C456" t="n">
-        <v>6215</v>
-      </c>
-      <c r="D456" t="n">
-        <v>6215</v>
-      </c>
-      <c r="E456" t="n">
-        <v>6215</v>
-      </c>
-      <c r="F456" t="n">
-        <v>28.0002</v>
-      </c>
-      <c r="G456" t="n">
-        <v>2777.764331317091</v>
-      </c>
-      <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C457" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D457" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E457" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F457" t="n">
-        <v>568.0196999999999</v>
-      </c>
-      <c r="G457" t="n">
-        <v>2209.744631317091</v>
-      </c>
-      <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C458" t="n">
-        <v>6195</v>
-      </c>
-      <c r="D458" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E458" t="n">
-        <v>6195</v>
-      </c>
-      <c r="F458" t="n">
-        <v>225.2294</v>
-      </c>
-      <c r="G458" t="n">
-        <v>1984.515231317091</v>
-      </c>
-      <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>6190</v>
-      </c>
-      <c r="C459" t="n">
-        <v>6190</v>
-      </c>
-      <c r="D459" t="n">
-        <v>6190</v>
-      </c>
-      <c r="E459" t="n">
-        <v>6190</v>
-      </c>
-      <c r="F459" t="n">
-        <v>110</v>
-      </c>
-      <c r="G459" t="n">
-        <v>1874.515231317091</v>
-      </c>
-      <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>6180</v>
-      </c>
-      <c r="C460" t="n">
-        <v>6180</v>
-      </c>
-      <c r="D460" t="n">
-        <v>6180</v>
-      </c>
-      <c r="E460" t="n">
-        <v>6180</v>
-      </c>
-      <c r="F460" t="n">
-        <v>68.34220000000001</v>
-      </c>
-      <c r="G460" t="n">
-        <v>1806.173031317091</v>
-      </c>
-      <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>6175</v>
-      </c>
-      <c r="C461" t="n">
-        <v>6175</v>
-      </c>
-      <c r="D461" t="n">
-        <v>6175</v>
-      </c>
-      <c r="E461" t="n">
-        <v>6175</v>
-      </c>
-      <c r="F461" t="n">
-        <v>13.4776</v>
-      </c>
-      <c r="G461" t="n">
-        <v>1792.695431317091</v>
-      </c>
-      <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>6180</v>
-      </c>
-      <c r="C462" t="n">
-        <v>6180</v>
-      </c>
-      <c r="D462" t="n">
-        <v>6180</v>
-      </c>
-      <c r="E462" t="n">
-        <v>6180</v>
-      </c>
-      <c r="F462" t="n">
-        <v>2.5317</v>
-      </c>
-      <c r="G462" t="n">
-        <v>1795.227131317091</v>
-      </c>
-      <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>6190</v>
-      </c>
-      <c r="C463" t="n">
-        <v>6190</v>
-      </c>
-      <c r="D463" t="n">
-        <v>6190</v>
-      </c>
-      <c r="E463" t="n">
-        <v>6190</v>
-      </c>
-      <c r="F463" t="n">
-        <v>25</v>
-      </c>
-      <c r="G463" t="n">
-        <v>1820.227131317091</v>
-      </c>
-      <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C464" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D464" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E464" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F464" t="n">
-        <v>6.6626</v>
-      </c>
-      <c r="G464" t="n">
-        <v>1826.889731317091</v>
-      </c>
-      <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>6190</v>
-      </c>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C465" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D465" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E465" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F465" t="n">
-        <v>3.4389</v>
-      </c>
-      <c r="G465" t="n">
-        <v>1826.889731317091</v>
-      </c>
-      <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L465" t="n">
-        <v>1</v>
-      </c>
-      <c r="M465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>6190</v>
-      </c>
-      <c r="C466" t="n">
-        <v>6190</v>
-      </c>
-      <c r="D466" t="n">
-        <v>6190</v>
-      </c>
-      <c r="E466" t="n">
-        <v>6190</v>
-      </c>
-      <c r="F466" t="n">
-        <v>11.1458</v>
-      </c>
-      <c r="G466" t="n">
-        <v>1815.743931317091</v>
-      </c>
-      <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>6205</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>6180</v>
-      </c>
-      <c r="C467" t="n">
-        <v>6180</v>
-      </c>
-      <c r="D467" t="n">
-        <v>6180</v>
-      </c>
-      <c r="E467" t="n">
-        <v>6180</v>
-      </c>
-      <c r="F467" t="n">
-        <v>23.6971</v>
-      </c>
-      <c r="G467" t="n">
-        <v>1792.046831317091</v>
-      </c>
-      <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>6190</v>
-      </c>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L467" t="n">
-        <v>1</v>
-      </c>
-      <c r="M467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>6180</v>
-      </c>
-      <c r="C468" t="n">
-        <v>6180</v>
-      </c>
-      <c r="D468" t="n">
-        <v>6180</v>
-      </c>
-      <c r="E468" t="n">
-        <v>6180</v>
-      </c>
-      <c r="F468" t="n">
-        <v>203.3029</v>
-      </c>
-      <c r="G468" t="n">
-        <v>1792.046831317091</v>
-      </c>
-      <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>6180</v>
-      </c>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>6180</v>
-      </c>
-      <c r="C469" t="n">
-        <v>6180</v>
-      </c>
-      <c r="D469" t="n">
-        <v>6180</v>
-      </c>
-      <c r="E469" t="n">
-        <v>6180</v>
-      </c>
-      <c r="F469" t="n">
-        <v>86.699</v>
-      </c>
-      <c r="G469" t="n">
-        <v>1792.046831317091</v>
-      </c>
-      <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>6180</v>
-      </c>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>6170</v>
-      </c>
-      <c r="C470" t="n">
-        <v>6170</v>
-      </c>
-      <c r="D470" t="n">
-        <v>6170</v>
-      </c>
-      <c r="E470" t="n">
-        <v>6170</v>
-      </c>
-      <c r="F470" t="n">
-        <v>174.0706</v>
-      </c>
-      <c r="G470" t="n">
-        <v>1617.976231317091</v>
-      </c>
-      <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>6180</v>
-      </c>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
-      <c r="M470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>6170</v>
-      </c>
-      <c r="C471" t="n">
-        <v>6170</v>
-      </c>
-      <c r="D471" t="n">
-        <v>6170</v>
-      </c>
-      <c r="E471" t="n">
-        <v>6170</v>
-      </c>
-      <c r="F471" t="n">
-        <v>151.1743</v>
-      </c>
-      <c r="G471" t="n">
-        <v>1617.976231317091</v>
-      </c>
-      <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>6170</v>
-      </c>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L471" t="n">
-        <v>1</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>6180</v>
-      </c>
-      <c r="C472" t="n">
-        <v>6180</v>
-      </c>
-      <c r="D472" t="n">
-        <v>6180</v>
-      </c>
-      <c r="E472" t="n">
-        <v>6180</v>
-      </c>
-      <c r="F472" t="n">
-        <v>50</v>
-      </c>
-      <c r="G472" t="n">
-        <v>1667.976231317091</v>
-      </c>
-      <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>6170</v>
-      </c>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C473" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D473" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E473" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F473" t="n">
-        <v>5</v>
-      </c>
-      <c r="G473" t="n">
-        <v>1672.976231317091</v>
-      </c>
-      <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>6180</v>
-      </c>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F474" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G474" t="n">
-        <v>1672.976231317091</v>
-      </c>
-      <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C475" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D475" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E475" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F475" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="G475" t="n">
-        <v>1571.776231317091</v>
-      </c>
-      <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>6190</v>
-      </c>
-      <c r="C476" t="n">
-        <v>6190</v>
-      </c>
-      <c r="D476" t="n">
-        <v>6190</v>
-      </c>
-      <c r="E476" t="n">
-        <v>6190</v>
-      </c>
-      <c r="F476" t="n">
-        <v>115.1276</v>
-      </c>
-      <c r="G476" t="n">
-        <v>1456.648631317091</v>
-      </c>
-      <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C477" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D477" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E477" t="n">
-        <v>6195</v>
-      </c>
-      <c r="F477" t="n">
-        <v>1218.077</v>
-      </c>
-      <c r="G477" t="n">
-        <v>2674.725631317091</v>
-      </c>
-      <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C478" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D478" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E478" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F478" t="n">
-        <v>189.9003</v>
-      </c>
-      <c r="G478" t="n">
-        <v>2484.825331317091</v>
-      </c>
-      <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>6205</v>
-      </c>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C479" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D479" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E479" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F479" t="n">
-        <v>0.4999</v>
-      </c>
-      <c r="G479" t="n">
-        <v>2484.825331317091</v>
-      </c>
-      <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>6200</v>
-      </c>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C480" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D480" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E480" t="n">
-        <v>6195</v>
-      </c>
-      <c r="F480" t="n">
-        <v>432.7564</v>
-      </c>
-      <c r="G480" t="n">
-        <v>2484.825331317091</v>
-      </c>
-      <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>6200</v>
-      </c>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16466,12 +16338,12 @@
         <v>2433.131931317091</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>6200</v>
-      </c>
-      <c r="J481" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>6190</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16505,12 +16377,14 @@
         <v>2498.343031317091</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>6190</v>
       </c>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>6190</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16544,12 +16418,14 @@
         <v>2702.443031317091</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>6195</v>
       </c>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>6190</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16583,12 +16459,14 @@
         <v>2706.022831317091</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>6205</v>
       </c>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>6190</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16625,7 +16503,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>6190</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16662,7 +16542,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>6190</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16699,7 +16581,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>6190</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16733,12 +16617,14 @@
         <v>2686.060031317091</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>6235</v>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>6190</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16772,12 +16658,12 @@
         <v>2410.874231317091</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>6225</v>
-      </c>
-      <c r="J489" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>6190</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16811,12 +16697,12 @@
         <v>2312.874231317091</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="n">
-        <v>6210</v>
-      </c>
-      <c r="J490" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>6190</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16850,12 +16736,12 @@
         <v>2322.92903131709</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
-      </c>
-      <c r="I491" t="n">
-        <v>6200</v>
-      </c>
-      <c r="J491" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>6190</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16889,12 +16775,12 @@
         <v>2302.38443131709</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
-      </c>
-      <c r="I492" t="n">
-        <v>6225</v>
-      </c>
-      <c r="J492" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>6190</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16928,12 +16814,12 @@
         <v>2360.08543131709</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>6220</v>
-      </c>
-      <c r="J493" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>6190</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16967,12 +16853,12 @@
         <v>2339.16193131709</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="n">
-        <v>6240</v>
-      </c>
-      <c r="J494" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>6190</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17009,7 +16895,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>6190</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17046,7 +16934,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>6190</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17080,10 +16970,14 @@
         <v>2181.059931317091</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J497" t="n">
+        <v>6190</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17117,10 +17011,14 @@
         <v>2180.252131317091</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J498" t="n">
+        <v>6190</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17154,10 +17052,14 @@
         <v>2018.791531317091</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>6190</v>
+      </c>
+      <c r="J499" t="n">
+        <v>6190</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17191,10 +17093,14 @@
         <v>1875.030531317091</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>6180</v>
+      </c>
+      <c r="J500" t="n">
+        <v>6190</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17228,10 +17134,14 @@
         <v>1893.855031317091</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>6155</v>
+      </c>
+      <c r="J501" t="n">
+        <v>6190</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17265,12 +17175,14 @@
         <v>1906.517631317091</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>6160</v>
       </c>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>6190</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17304,12 +17216,14 @@
         <v>2058.01763131709</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>6175</v>
       </c>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>6190</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17343,10 +17257,14 @@
         <v>2050.25453131709</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>6200</v>
+      </c>
+      <c r="J504" t="n">
+        <v>6190</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17380,12 +17298,14 @@
         <v>2327.95453131709</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>6190</v>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>6190</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17419,12 +17339,14 @@
         <v>2428.95453131709</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>6200</v>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>6190</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17458,12 +17380,14 @@
         <v>2428.95453131709</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>6210</v>
       </c>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>6190</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17497,12 +17421,14 @@
         <v>2074.99633131709</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>6210</v>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>6190</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17536,12 +17462,14 @@
         <v>2102.09143131709</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>6185</v>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>6190</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17575,12 +17503,14 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>6190</v>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>6190</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17614,12 +17544,14 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>6195</v>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>6190</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17653,12 +17585,14 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>6195</v>
       </c>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>6190</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17692,12 +17626,14 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>6195</v>
       </c>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>6190</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17731,12 +17667,14 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>6195</v>
       </c>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>6190</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17770,12 +17708,14 @@
         <v>1819.22133131709</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>6195</v>
       </c>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>6190</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17809,12 +17749,14 @@
         <v>1349.86633131709</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>6190</v>
       </c>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>6190</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17848,12 +17790,14 @@
         <v>2311.68743131709</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>6180</v>
       </c>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>6190</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17887,12 +17831,14 @@
         <v>2311.68743131709</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>6190</v>
       </c>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>6190</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17926,12 +17872,14 @@
         <v>2329.91143131709</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>6190</v>
       </c>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>6190</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17965,12 +17913,14 @@
         <v>2329.91143131709</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>6195</v>
       </c>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>6190</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18004,12 +17954,14 @@
         <v>2332.56443131709</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>6195</v>
       </c>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>6190</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18021,6 +17973,6 @@
       <c r="M521" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ETC.xlsx
+++ b/BackTest/2020-01-13 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>2254.65191854789</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2406.65191854789</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2432.29101854789</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2228.00731854789</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2253.00731854789</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2015.40731854789</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1302.22571854789</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1412.841364049367</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1551.471364049367</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1551.471364049367</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1682.296064049367</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1581.396064049367</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1581.396064049367</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1581.396064049367</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>1231.396064049367</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1100.272664049367</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>900.2726640493672</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1138.338463974371</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1264.638463974371</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1971.694997845906</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1871.694997845906</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1973.794997845906</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2498.765485790264</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2398.765485790264</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2398.765485790264</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2398.765485790264</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>3090.215685790264</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>4138.976585790264</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3592.830185790264</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3592.830185790264</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3604.079685790264</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3544.069985790264</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3631.790385790264</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>3551.778585790264</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3551.778585790264</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3535.559785790264</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3592.074885790264</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3585.574885790264</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3537.903485790263</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3437.903485790263</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3302.703485790264</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3407.603485790264</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>2958.403585790264</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>2958.403585790264</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>2958.403585790264</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>2857.903585790264</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2956.003585790264</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>3114.818685790263</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>3122.786085790263</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>3476.744285790263</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3279.344285790263</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3272.577085790263</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3518.589985790264</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>3510.278685790264</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>3126.864885790264</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>3126.864885790264</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>2270.106585790264</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>3586.847085790264</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>3726.224485790264</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4842.394885790263</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4872.996285790263</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4872.996285790263</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4847.996285790263</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4648.667185790263</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>4532.426685790263</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>4582.881685790263</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>4573.905385790263</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>4616.109785790262</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>4516.110385790263</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>5064.944985790263</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>5065.124985790263</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>4923.570085790263</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>4844.572785790263</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4830.129485790263</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>4834.569385790263</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>4736.552985790263</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>4291.219085790263</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>4291.219085790263</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>4145.848885790263</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>4145.848885790263</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>3481.815385790263</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>3479.004285790263</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>3528.835285790263</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>3551.250485790263</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>4173.539085790263</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>4233.718885790263</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>4231.939485790263</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>4231.939485790263</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>4166.907785790263</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>4430.907785790263</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>4189.932885790263</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>4073.349985790263</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>3399.936785790263</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>2968.136785790263</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>3048.136785790263</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>3048.136785790263</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>3007.846785790263</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>3007.846785790263</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>2692.405485790263</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>2481.917085790263</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>2223.223685790263</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>3225.531185790262</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>3095.572485790262</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>3095.572485790262</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>3095.572485790262</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>3121.472485790262</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>1966.894664779204</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>1820.740464779204</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>2239.153664779204</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>2176.105664779204</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>2049.862264779204</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2094.543464779204</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>2094.543464779204</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>2089.034064779204</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>2089.434064779204</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>2033.795264779204</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>2102.671964779204</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1997.471964779204</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>2075.474664779204</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2070.474664779204</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1937.337264779204</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1861.271764779204</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>1745.690764779205</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1718.973964779205</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1723.973964779205</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1621.263964779205</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9922,10 +9922,14 @@
         <v>1294.985664779205</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>6260</v>
+      </c>
+      <c r="J289" t="n">
+        <v>6260</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
@@ -9955,11 +9959,19 @@
         <v>1292.985664779205</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>6260</v>
+      </c>
+      <c r="J290" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10000,19 @@
         <v>1298.552864779205</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>6245</v>
+      </c>
+      <c r="J291" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,10 +10041,14 @@
         <v>1278.260864779205</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>6260</v>
+      </c>
+      <c r="J292" t="n">
+        <v>6260</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
@@ -10054,11 +10078,19 @@
         <v>1240.985164779205</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>6255</v>
+      </c>
+      <c r="J293" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10119,19 @@
         <v>1083.556864779205</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>6240</v>
+      </c>
+      <c r="J294" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10160,19 @@
         <v>1741.177164779205</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>6235</v>
+      </c>
+      <c r="J295" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10201,19 @@
         <v>1570.124964779205</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>6245</v>
+      </c>
+      <c r="J296" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10242,19 @@
         <v>1570.124964779205</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>6240</v>
+      </c>
+      <c r="J297" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10283,19 @@
         <v>1423.382964779205</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>6240</v>
+      </c>
+      <c r="J298" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10324,19 @@
         <v>1574.382964779205</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>6235</v>
+      </c>
+      <c r="J299" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10365,19 @@
         <v>1883.287364779205</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>6250</v>
+      </c>
+      <c r="J300" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10406,19 @@
         <v>1883.287364779205</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>6265</v>
+      </c>
+      <c r="J301" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10447,19 @@
         <v>2283.287364779205</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>6265</v>
+      </c>
+      <c r="J302" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +10491,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10530,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10569,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +10608,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10647,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +10686,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +10725,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +10764,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +10803,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +10842,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +10881,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +10920,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +10959,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +10998,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +11037,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +11076,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +11115,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +11154,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +11193,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +11232,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11047,8 +11271,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +11310,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11346,19 @@
         <v>-1330.642935220796</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>6165</v>
+      </c>
+      <c r="J325" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +11390,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11429,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11468,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11507,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,15 +11543,17 @@
         <v>386.8361696670246</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>6225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>6225</v>
-      </c>
-      <c r="K330" t="inlineStr"/>
+        <v>6260</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,17 +11582,15 @@
         <v>386.8361696670246</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>6240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>6225</v>
+        <v>6260</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L331" t="n">
@@ -11357,11 +11625,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>6225</v>
+        <v>6260</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L332" t="n">
@@ -11395,8 +11663,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11428,8 +11702,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11461,8 +11741,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11494,8 +11780,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11527,8 +11819,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11560,8 +11858,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11593,8 +11897,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11626,8 +11936,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11659,8 +11975,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11692,8 +12014,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11725,8 +12053,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11758,8 +12092,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11791,8 +12131,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11824,8 +12170,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11857,8 +12209,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11890,8 +12248,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11923,8 +12287,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11956,8 +12326,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11989,8 +12365,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12022,8 +12404,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12055,8 +12443,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12088,8 +12482,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12121,8 +12521,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12154,8 +12560,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12187,8 +12599,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12220,8 +12638,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12253,8 +12677,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12286,8 +12716,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12319,8 +12755,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12352,8 +12794,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12385,8 +12833,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12418,8 +12872,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12451,8 +12911,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12484,8 +12950,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12517,8 +12989,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12550,8 +13028,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12583,8 +13067,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12616,8 +13106,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12649,8 +13145,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12682,8 +13184,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12715,8 +13223,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12748,8 +13262,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12778,13 +13298,19 @@
         <v>4805.483731317091</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>6260</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L375" t="n">
-        <v>1</v>
+        <v>1.002188498402556</v>
       </c>
       <c r="M375" t="inlineStr"/>
     </row>
@@ -12811,7 +13337,7 @@
         <v>4805.483731317091</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12844,7 +13370,7 @@
         <v>5430.483731317091</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12877,7 +13403,7 @@
         <v>5383.208531317091</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12910,7 +13436,7 @@
         <v>6018.157431317091</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12976,7 +13502,7 @@
         <v>5931.540531317091</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13009,7 +13535,7 @@
         <v>5956.754031317091</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13042,7 +13568,7 @@
         <v>5951.754031317091</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13075,7 +13601,7 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13108,7 +13634,7 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13141,7 +13667,7 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13174,7 +13700,7 @@
         <v>5594.313831317091</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13306,7 +13832,7 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13339,7 +13865,7 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13372,7 +13898,7 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13405,7 +13931,7 @@
         <v>5600.64713131709</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13438,7 +13964,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13471,7 +13997,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13504,7 +14030,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13537,7 +14063,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13570,7 +14096,7 @@
         <v>5570.52613131709</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13603,7 +14129,7 @@
         <v>5570.52613131709</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13636,7 +14162,7 @@
         <v>5459.89423131709</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13669,7 +14195,7 @@
         <v>4515.89423131709</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13702,7 +14228,7 @@
         <v>4565.89423131709</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13735,7 +14261,7 @@
         <v>4517.31513131709</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13768,7 +14294,7 @@
         <v>3955.39293131709</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13801,7 +14327,7 @@
         <v>3955.39293131709</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15946,14 +16472,10 @@
         <v>1617.976231317091</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>6170</v>
-      </c>
-      <c r="J471" t="n">
-        <v>6170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
@@ -15983,1416 +16505,1202 @@
         <v>1667.976231317091</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>6170</v>
-      </c>
-      <c r="J472" t="n">
-        <v>6170</v>
-      </c>
-      <c r="K472" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C473" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D473" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E473" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F473" t="n">
+        <v>5</v>
+      </c>
+      <c r="G473" t="n">
+        <v>1672.976231317091</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C474" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D474" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E474" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F474" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G474" t="n">
+        <v>1672.976231317091</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C475" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D475" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E475" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F475" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="G475" t="n">
+        <v>1571.776231317091</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>6190</v>
+      </c>
+      <c r="C476" t="n">
+        <v>6190</v>
+      </c>
+      <c r="D476" t="n">
+        <v>6190</v>
+      </c>
+      <c r="E476" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F476" t="n">
+        <v>115.1276</v>
+      </c>
+      <c r="G476" t="n">
+        <v>1456.648631317091</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C477" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D477" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E477" t="n">
+        <v>6195</v>
+      </c>
+      <c r="F477" t="n">
+        <v>1218.077</v>
+      </c>
+      <c r="G477" t="n">
+        <v>2674.725631317091</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C478" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D478" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E478" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F478" t="n">
+        <v>189.9003</v>
+      </c>
+      <c r="G478" t="n">
+        <v>2484.825331317091</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C479" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D479" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E479" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="G479" t="n">
+        <v>2484.825331317091</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C480" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D480" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E480" t="n">
+        <v>6195</v>
+      </c>
+      <c r="F480" t="n">
+        <v>432.7564</v>
+      </c>
+      <c r="G480" t="n">
+        <v>2484.825331317091</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="n">
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>6190</v>
+      </c>
+      <c r="C481" t="n">
+        <v>6190</v>
+      </c>
+      <c r="D481" t="n">
+        <v>6190</v>
+      </c>
+      <c r="E481" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F481" t="n">
+        <v>51.6934</v>
+      </c>
+      <c r="G481" t="n">
+        <v>2433.131931317091</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>6195</v>
+      </c>
+      <c r="C482" t="n">
+        <v>6195</v>
+      </c>
+      <c r="D482" t="n">
+        <v>6195</v>
+      </c>
+      <c r="E482" t="n">
+        <v>6195</v>
+      </c>
+      <c r="F482" t="n">
+        <v>65.2111</v>
+      </c>
+      <c r="G482" t="n">
+        <v>2498.343031317091</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="n">
+        <v>1</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C483" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D483" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E483" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F483" t="n">
+        <v>204.1</v>
+      </c>
+      <c r="G483" t="n">
+        <v>2702.443031317091</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="n">
+        <v>1</v>
+      </c>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>6220</v>
+      </c>
+      <c r="C484" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D484" t="n">
+        <v>6220</v>
+      </c>
+      <c r="E484" t="n">
+        <v>6220</v>
+      </c>
+      <c r="F484" t="n">
+        <v>3.5798</v>
+      </c>
+      <c r="G484" t="n">
+        <v>2706.022831317091</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="n">
+        <v>1</v>
+      </c>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>6220</v>
+      </c>
+      <c r="C485" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D485" t="n">
+        <v>6220</v>
+      </c>
+      <c r="E485" t="n">
+        <v>6220</v>
+      </c>
+      <c r="F485" t="n">
+        <v>3</v>
+      </c>
+      <c r="G485" t="n">
+        <v>2706.022831317091</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="n">
+        <v>1</v>
+      </c>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>6235</v>
+      </c>
+      <c r="C486" t="n">
+        <v>6235</v>
+      </c>
+      <c r="D486" t="n">
+        <v>6235</v>
+      </c>
+      <c r="E486" t="n">
+        <v>6235</v>
+      </c>
+      <c r="F486" t="n">
+        <v>23.1119</v>
+      </c>
+      <c r="G486" t="n">
+        <v>2729.134731317091</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="n">
+        <v>1</v>
+      </c>
+      <c r="M486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>6235</v>
+      </c>
+      <c r="C487" t="n">
+        <v>6235</v>
+      </c>
+      <c r="D487" t="n">
+        <v>6235</v>
+      </c>
+      <c r="E487" t="n">
+        <v>6235</v>
+      </c>
+      <c r="F487" t="n">
+        <v>82.5881</v>
+      </c>
+      <c r="G487" t="n">
+        <v>2729.134731317091</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="n">
+        <v>1</v>
+      </c>
+      <c r="M487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>6225</v>
+      </c>
+      <c r="C488" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D488" t="n">
+        <v>6225</v>
+      </c>
+      <c r="E488" t="n">
+        <v>6225</v>
+      </c>
+      <c r="F488" t="n">
+        <v>43.0747</v>
+      </c>
+      <c r="G488" t="n">
+        <v>2686.060031317091</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="n">
+        <v>1</v>
+      </c>
+      <c r="M488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>6210</v>
+      </c>
+      <c r="C489" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D489" t="n">
+        <v>6210</v>
+      </c>
+      <c r="E489" t="n">
+        <v>6210</v>
+      </c>
+      <c r="F489" t="n">
+        <v>275.1858</v>
+      </c>
+      <c r="G489" t="n">
+        <v>2410.874231317091</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="n">
+        <v>1</v>
+      </c>
+      <c r="M489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C490" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D490" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E490" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F490" t="n">
+        <v>98</v>
+      </c>
+      <c r="G490" t="n">
+        <v>2312.874231317091</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="n">
+        <v>1</v>
+      </c>
+      <c r="M490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>6225</v>
+      </c>
+      <c r="C491" t="n">
+        <v>6225</v>
+      </c>
+      <c r="D491" t="n">
+        <v>6225</v>
+      </c>
+      <c r="E491" t="n">
+        <v>6225</v>
+      </c>
+      <c r="F491" t="n">
+        <v>10.0548</v>
+      </c>
+      <c r="G491" t="n">
+        <v>2322.92903131709</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="n">
+        <v>1</v>
+      </c>
+      <c r="M491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>6220</v>
+      </c>
+      <c r="C492" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D492" t="n">
+        <v>6220</v>
+      </c>
+      <c r="E492" t="n">
+        <v>6220</v>
+      </c>
+      <c r="F492" t="n">
+        <v>20.5446</v>
+      </c>
+      <c r="G492" t="n">
+        <v>2302.38443131709</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="n">
+        <v>1</v>
+      </c>
+      <c r="M492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>6240</v>
+      </c>
+      <c r="C493" t="n">
+        <v>6240</v>
+      </c>
+      <c r="D493" t="n">
+        <v>6240</v>
+      </c>
+      <c r="E493" t="n">
+        <v>6240</v>
+      </c>
+      <c r="F493" t="n">
+        <v>57.701</v>
+      </c>
+      <c r="G493" t="n">
+        <v>2360.08543131709</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="n">
+        <v>1</v>
+      </c>
+      <c r="M493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>6235</v>
+      </c>
+      <c r="C494" t="n">
+        <v>6235</v>
+      </c>
+      <c r="D494" t="n">
+        <v>6235</v>
+      </c>
+      <c r="E494" t="n">
+        <v>6235</v>
+      </c>
+      <c r="F494" t="n">
+        <v>20.9235</v>
+      </c>
+      <c r="G494" t="n">
+        <v>2339.16193131709</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="n">
+        <v>1</v>
+      </c>
+      <c r="M494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C495" t="n">
+        <v>6205</v>
+      </c>
+      <c r="D495" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E495" t="n">
+        <v>6205</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="G495" t="n">
+        <v>2338.19493131709</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="n">
+        <v>1</v>
+      </c>
+      <c r="M495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C496" t="n">
+        <v>6195</v>
+      </c>
+      <c r="D496" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E496" t="n">
+        <v>6195</v>
+      </c>
+      <c r="F496" t="n">
+        <v>157.135</v>
+      </c>
+      <c r="G496" t="n">
+        <v>2181.059931317091</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="n">
+        <v>1</v>
+      </c>
+      <c r="M496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>6195</v>
+      </c>
+      <c r="C497" t="n">
+        <v>6195</v>
+      </c>
+      <c r="D497" t="n">
+        <v>6195</v>
+      </c>
+      <c r="E497" t="n">
+        <v>6195</v>
+      </c>
+      <c r="F497" t="n">
+        <v>50.049</v>
+      </c>
+      <c r="G497" t="n">
+        <v>2181.059931317091</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="n">
+        <v>1</v>
+      </c>
+      <c r="M497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>6190</v>
+      </c>
+      <c r="C498" t="n">
+        <v>6190</v>
+      </c>
+      <c r="D498" t="n">
+        <v>6190</v>
+      </c>
+      <c r="E498" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0.8078</v>
+      </c>
+      <c r="G498" t="n">
+        <v>2180.252131317091</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="n">
+        <v>1</v>
+      </c>
+      <c r="M498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C499" t="n">
+        <v>6180</v>
+      </c>
+      <c r="D499" t="n">
+        <v>6180</v>
+      </c>
+      <c r="E499" t="n">
+        <v>6180</v>
+      </c>
+      <c r="F499" t="n">
+        <v>161.4606</v>
+      </c>
+      <c r="G499" t="n">
+        <v>2018.791531317091</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="n">
+        <v>1</v>
+      </c>
+      <c r="M499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>6175</v>
+      </c>
+      <c r="C500" t="n">
+        <v>6155</v>
+      </c>
+      <c r="D500" t="n">
+        <v>6175</v>
+      </c>
+      <c r="E500" t="n">
+        <v>6155</v>
+      </c>
+      <c r="F500" t="n">
+        <v>143.761</v>
+      </c>
+      <c r="G500" t="n">
+        <v>1875.030531317091</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="n">
+        <v>1</v>
+      </c>
+      <c r="M500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>6165</v>
+      </c>
+      <c r="C501" t="n">
+        <v>6160</v>
+      </c>
+      <c r="D501" t="n">
+        <v>6165</v>
+      </c>
+      <c r="E501" t="n">
+        <v>6160</v>
+      </c>
+      <c r="F501" t="n">
+        <v>18.8245</v>
+      </c>
+      <c r="G501" t="n">
+        <v>1893.855031317091</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="n">
+        <v>1</v>
+      </c>
+      <c r="M501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>6175</v>
+      </c>
+      <c r="C502" t="n">
+        <v>6175</v>
+      </c>
+      <c r="D502" t="n">
+        <v>6175</v>
+      </c>
+      <c r="E502" t="n">
+        <v>6175</v>
+      </c>
+      <c r="F502" t="n">
+        <v>12.6626</v>
+      </c>
+      <c r="G502" t="n">
+        <v>1906.517631317091</v>
+      </c>
+      <c r="H502" t="n">
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>6160</v>
+      </c>
+      <c r="J502" t="n">
+        <v>6160</v>
+      </c>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="n">
+        <v>1</v>
+      </c>
+      <c r="M502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>6190</v>
+      </c>
+      <c r="C503" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D503" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E503" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F503" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="G503" t="n">
+        <v>2058.01763131709</v>
+      </c>
+      <c r="H503" t="n">
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>6175</v>
+      </c>
+      <c r="J503" t="n">
+        <v>6160</v>
+      </c>
+      <c r="K503" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C473" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D473" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E473" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F473" t="n">
-        <v>5</v>
-      </c>
-      <c r="G473" t="n">
-        <v>1672.976231317091</v>
-      </c>
-      <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>6180</v>
-      </c>
-      <c r="J473" t="n">
-        <v>6170</v>
-      </c>
-      <c r="K473" t="inlineStr">
+      <c r="L503" t="n">
+        <v>1</v>
+      </c>
+      <c r="M503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>6195</v>
+      </c>
+      <c r="C504" t="n">
+        <v>6190</v>
+      </c>
+      <c r="D504" t="n">
+        <v>6195</v>
+      </c>
+      <c r="E504" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F504" t="n">
+        <v>7.7631</v>
+      </c>
+      <c r="G504" t="n">
+        <v>2050.25453131709</v>
+      </c>
+      <c r="H504" t="n">
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>6200</v>
+      </c>
+      <c r="J504" t="n">
+        <v>6160</v>
+      </c>
+      <c r="K504" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F474" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G474" t="n">
-        <v>1672.976231317091</v>
-      </c>
-      <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="J474" t="n">
-        <v>6205</v>
-      </c>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
+      <c r="L504" t="n">
+        <v>1</v>
+      </c>
+      <c r="M504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
         <v>6200</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C505" t="n">
         <v>6200</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D505" t="n">
         <v>6200</v>
       </c>
-      <c r="E475" t="n">
+      <c r="E505" t="n">
         <v>6200</v>
       </c>
-      <c r="F475" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="G475" t="n">
-        <v>1571.776231317091</v>
-      </c>
-      <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>6205</v>
-      </c>
-      <c r="K475" t="inlineStr">
+      <c r="F505" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="G505" t="n">
+        <v>2327.95453131709</v>
+      </c>
+      <c r="H505" t="n">
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>6190</v>
+      </c>
+      <c r="J505" t="n">
+        <v>6190</v>
+      </c>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="n">
+        <v>1</v>
+      </c>
+      <c r="M505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>6210</v>
+      </c>
+      <c r="C506" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D506" t="n">
+        <v>6210</v>
+      </c>
+      <c r="E506" t="n">
+        <v>6210</v>
+      </c>
+      <c r="F506" t="n">
+        <v>101</v>
+      </c>
+      <c r="G506" t="n">
+        <v>2428.95453131709</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>6190</v>
+      </c>
+      <c r="K506" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
+      <c r="L506" t="n">
+        <v>1</v>
+      </c>
+      <c r="M506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>6210</v>
+      </c>
+      <c r="C507" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D507" t="n">
+        <v>6210</v>
+      </c>
+      <c r="E507" t="n">
+        <v>6210</v>
+      </c>
+      <c r="F507" t="n">
+        <v>24.9684</v>
+      </c>
+      <c r="G507" t="n">
+        <v>2428.95453131709</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="n">
         <v>6190</v>
       </c>
-      <c r="C476" t="n">
-        <v>6190</v>
-      </c>
-      <c r="D476" t="n">
-        <v>6190</v>
-      </c>
-      <c r="E476" t="n">
-        <v>6190</v>
-      </c>
-      <c r="F476" t="n">
-        <v>115.1276</v>
-      </c>
-      <c r="G476" t="n">
-        <v>1456.648631317091</v>
-      </c>
-      <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>6205</v>
-      </c>
-      <c r="K476" t="inlineStr">
+      <c r="K507" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C477" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D477" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E477" t="n">
-        <v>6195</v>
-      </c>
-      <c r="F477" t="n">
-        <v>1218.077</v>
-      </c>
-      <c r="G477" t="n">
-        <v>2674.725631317091</v>
-      </c>
-      <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>6190</v>
-      </c>
-      <c r="J477" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C478" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D478" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E478" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F478" t="n">
-        <v>189.9003</v>
-      </c>
-      <c r="G478" t="n">
-        <v>2484.825331317091</v>
-      </c>
-      <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>6205</v>
-      </c>
-      <c r="J478" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C479" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D479" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E479" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F479" t="n">
-        <v>0.4999</v>
-      </c>
-      <c r="G479" t="n">
-        <v>2484.825331317091</v>
-      </c>
-      <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C480" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D480" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E480" t="n">
-        <v>6195</v>
-      </c>
-      <c r="F480" t="n">
-        <v>432.7564</v>
-      </c>
-      <c r="G480" t="n">
-        <v>2484.825331317091</v>
-      </c>
-      <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>6200</v>
-      </c>
-      <c r="J480" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L480" t="n">
-        <v>1</v>
-      </c>
-      <c r="M480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>6190</v>
-      </c>
-      <c r="C481" t="n">
-        <v>6190</v>
-      </c>
-      <c r="D481" t="n">
-        <v>6190</v>
-      </c>
-      <c r="E481" t="n">
-        <v>6190</v>
-      </c>
-      <c r="F481" t="n">
-        <v>51.6934</v>
-      </c>
-      <c r="G481" t="n">
-        <v>2433.131931317091</v>
-      </c>
-      <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
-      <c r="M481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>6195</v>
-      </c>
-      <c r="C482" t="n">
-        <v>6195</v>
-      </c>
-      <c r="D482" t="n">
-        <v>6195</v>
-      </c>
-      <c r="E482" t="n">
-        <v>6195</v>
-      </c>
-      <c r="F482" t="n">
-        <v>65.2111</v>
-      </c>
-      <c r="G482" t="n">
-        <v>2498.343031317091</v>
-      </c>
-      <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>6190</v>
-      </c>
-      <c r="J482" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
-      <c r="M482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C483" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D483" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E483" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F483" t="n">
-        <v>204.1</v>
-      </c>
-      <c r="G483" t="n">
-        <v>2702.443031317091</v>
-      </c>
-      <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J483" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L483" t="n">
-        <v>1</v>
-      </c>
-      <c r="M483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>6220</v>
-      </c>
-      <c r="C484" t="n">
-        <v>6220</v>
-      </c>
-      <c r="D484" t="n">
-        <v>6220</v>
-      </c>
-      <c r="E484" t="n">
-        <v>6220</v>
-      </c>
-      <c r="F484" t="n">
-        <v>3.5798</v>
-      </c>
-      <c r="G484" t="n">
-        <v>2706.022831317091</v>
-      </c>
-      <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>6205</v>
-      </c>
-      <c r="J484" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L484" t="n">
-        <v>1</v>
-      </c>
-      <c r="M484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>6220</v>
-      </c>
-      <c r="C485" t="n">
-        <v>6220</v>
-      </c>
-      <c r="D485" t="n">
-        <v>6220</v>
-      </c>
-      <c r="E485" t="n">
-        <v>6220</v>
-      </c>
-      <c r="F485" t="n">
-        <v>3</v>
-      </c>
-      <c r="G485" t="n">
-        <v>2706.022831317091</v>
-      </c>
-      <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L485" t="n">
-        <v>1</v>
-      </c>
-      <c r="M485" t="inlineStr"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>6235</v>
-      </c>
-      <c r="C486" t="n">
-        <v>6235</v>
-      </c>
-      <c r="D486" t="n">
-        <v>6235</v>
-      </c>
-      <c r="E486" t="n">
-        <v>6235</v>
-      </c>
-      <c r="F486" t="n">
-        <v>23.1119</v>
-      </c>
-      <c r="G486" t="n">
-        <v>2729.134731317091</v>
-      </c>
-      <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L486" t="n">
-        <v>1</v>
-      </c>
-      <c r="M486" t="inlineStr"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>6235</v>
-      </c>
-      <c r="C487" t="n">
-        <v>6235</v>
-      </c>
-      <c r="D487" t="n">
-        <v>6235</v>
-      </c>
-      <c r="E487" t="n">
-        <v>6235</v>
-      </c>
-      <c r="F487" t="n">
-        <v>82.5881</v>
-      </c>
-      <c r="G487" t="n">
-        <v>2729.134731317091</v>
-      </c>
-      <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L487" t="n">
-        <v>1</v>
-      </c>
-      <c r="M487" t="inlineStr"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="n">
-        <v>6225</v>
-      </c>
-      <c r="C488" t="n">
-        <v>6225</v>
-      </c>
-      <c r="D488" t="n">
-        <v>6225</v>
-      </c>
-      <c r="E488" t="n">
-        <v>6225</v>
-      </c>
-      <c r="F488" t="n">
-        <v>43.0747</v>
-      </c>
-      <c r="G488" t="n">
-        <v>2686.060031317091</v>
-      </c>
-      <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>6235</v>
-      </c>
-      <c r="J488" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L488" t="n">
-        <v>1</v>
-      </c>
-      <c r="M488" t="inlineStr"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="n">
-        <v>6210</v>
-      </c>
-      <c r="C489" t="n">
-        <v>6210</v>
-      </c>
-      <c r="D489" t="n">
-        <v>6210</v>
-      </c>
-      <c r="E489" t="n">
-        <v>6210</v>
-      </c>
-      <c r="F489" t="n">
-        <v>275.1858</v>
-      </c>
-      <c r="G489" t="n">
-        <v>2410.874231317091</v>
-      </c>
-      <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L489" t="n">
-        <v>1</v>
-      </c>
-      <c r="M489" t="inlineStr"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C490" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D490" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E490" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F490" t="n">
-        <v>98</v>
-      </c>
-      <c r="G490" t="n">
-        <v>2312.874231317091</v>
-      </c>
-      <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L490" t="n">
-        <v>1</v>
-      </c>
-      <c r="M490" t="inlineStr"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B491" t="n">
-        <v>6225</v>
-      </c>
-      <c r="C491" t="n">
-        <v>6225</v>
-      </c>
-      <c r="D491" t="n">
-        <v>6225</v>
-      </c>
-      <c r="E491" t="n">
-        <v>6225</v>
-      </c>
-      <c r="F491" t="n">
-        <v>10.0548</v>
-      </c>
-      <c r="G491" t="n">
-        <v>2322.92903131709</v>
-      </c>
-      <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L491" t="n">
-        <v>1</v>
-      </c>
-      <c r="M491" t="inlineStr"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B492" t="n">
-        <v>6220</v>
-      </c>
-      <c r="C492" t="n">
-        <v>6220</v>
-      </c>
-      <c r="D492" t="n">
-        <v>6220</v>
-      </c>
-      <c r="E492" t="n">
-        <v>6220</v>
-      </c>
-      <c r="F492" t="n">
-        <v>20.5446</v>
-      </c>
-      <c r="G492" t="n">
-        <v>2302.38443131709</v>
-      </c>
-      <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L492" t="n">
-        <v>1</v>
-      </c>
-      <c r="M492" t="inlineStr"/>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
-        <v>491</v>
-      </c>
-      <c r="B493" t="n">
-        <v>6240</v>
-      </c>
-      <c r="C493" t="n">
-        <v>6240</v>
-      </c>
-      <c r="D493" t="n">
-        <v>6240</v>
-      </c>
-      <c r="E493" t="n">
-        <v>6240</v>
-      </c>
-      <c r="F493" t="n">
-        <v>57.701</v>
-      </c>
-      <c r="G493" t="n">
-        <v>2360.08543131709</v>
-      </c>
-      <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L493" t="n">
-        <v>1</v>
-      </c>
-      <c r="M493" t="inlineStr"/>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B494" t="n">
-        <v>6235</v>
-      </c>
-      <c r="C494" t="n">
-        <v>6235</v>
-      </c>
-      <c r="D494" t="n">
-        <v>6235</v>
-      </c>
-      <c r="E494" t="n">
-        <v>6235</v>
-      </c>
-      <c r="F494" t="n">
-        <v>20.9235</v>
-      </c>
-      <c r="G494" t="n">
-        <v>2339.16193131709</v>
-      </c>
-      <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L494" t="n">
-        <v>1</v>
-      </c>
-      <c r="M494" t="inlineStr"/>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B495" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C495" t="n">
-        <v>6205</v>
-      </c>
-      <c r="D495" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E495" t="n">
-        <v>6205</v>
-      </c>
-      <c r="F495" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="G495" t="n">
-        <v>2338.19493131709</v>
-      </c>
-      <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L495" t="n">
-        <v>1</v>
-      </c>
-      <c r="M495" t="inlineStr"/>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B496" t="n">
-        <v>6205</v>
-      </c>
-      <c r="C496" t="n">
-        <v>6195</v>
-      </c>
-      <c r="D496" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E496" t="n">
-        <v>6195</v>
-      </c>
-      <c r="F496" t="n">
-        <v>157.135</v>
-      </c>
-      <c r="G496" t="n">
-        <v>2181.059931317091</v>
-      </c>
-      <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L496" t="n">
-        <v>1</v>
-      </c>
-      <c r="M496" t="inlineStr"/>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B497" t="n">
-        <v>6195</v>
-      </c>
-      <c r="C497" t="n">
-        <v>6195</v>
-      </c>
-      <c r="D497" t="n">
-        <v>6195</v>
-      </c>
-      <c r="E497" t="n">
-        <v>6195</v>
-      </c>
-      <c r="F497" t="n">
-        <v>50.049</v>
-      </c>
-      <c r="G497" t="n">
-        <v>2181.059931317091</v>
-      </c>
-      <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J497" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L497" t="n">
-        <v>1</v>
-      </c>
-      <c r="M497" t="inlineStr"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="n">
-        <v>6190</v>
-      </c>
-      <c r="C498" t="n">
-        <v>6190</v>
-      </c>
-      <c r="D498" t="n">
-        <v>6190</v>
-      </c>
-      <c r="E498" t="n">
-        <v>6190</v>
-      </c>
-      <c r="F498" t="n">
-        <v>0.8078</v>
-      </c>
-      <c r="G498" t="n">
-        <v>2180.252131317091</v>
-      </c>
-      <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J498" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L498" t="n">
-        <v>1</v>
-      </c>
-      <c r="M498" t="inlineStr"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="n">
-        <v>6180</v>
-      </c>
-      <c r="C499" t="n">
-        <v>6180</v>
-      </c>
-      <c r="D499" t="n">
-        <v>6180</v>
-      </c>
-      <c r="E499" t="n">
-        <v>6180</v>
-      </c>
-      <c r="F499" t="n">
-        <v>161.4606</v>
-      </c>
-      <c r="G499" t="n">
-        <v>2018.791531317091</v>
-      </c>
-      <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>6190</v>
-      </c>
-      <c r="J499" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L499" t="n">
-        <v>1</v>
-      </c>
-      <c r="M499" t="inlineStr"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="n">
-        <v>6175</v>
-      </c>
-      <c r="C500" t="n">
-        <v>6155</v>
-      </c>
-      <c r="D500" t="n">
-        <v>6175</v>
-      </c>
-      <c r="E500" t="n">
-        <v>6155</v>
-      </c>
-      <c r="F500" t="n">
-        <v>143.761</v>
-      </c>
-      <c r="G500" t="n">
-        <v>1875.030531317091</v>
-      </c>
-      <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>6180</v>
-      </c>
-      <c r="J500" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L500" t="n">
-        <v>1</v>
-      </c>
-      <c r="M500" t="inlineStr"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="n">
-        <v>6165</v>
-      </c>
-      <c r="C501" t="n">
-        <v>6160</v>
-      </c>
-      <c r="D501" t="n">
-        <v>6165</v>
-      </c>
-      <c r="E501" t="n">
-        <v>6160</v>
-      </c>
-      <c r="F501" t="n">
-        <v>18.8245</v>
-      </c>
-      <c r="G501" t="n">
-        <v>1893.855031317091</v>
-      </c>
-      <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>6155</v>
-      </c>
-      <c r="J501" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L501" t="n">
-        <v>1</v>
-      </c>
-      <c r="M501" t="inlineStr"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="n">
-        <v>6175</v>
-      </c>
-      <c r="C502" t="n">
-        <v>6175</v>
-      </c>
-      <c r="D502" t="n">
-        <v>6175</v>
-      </c>
-      <c r="E502" t="n">
-        <v>6175</v>
-      </c>
-      <c r="F502" t="n">
-        <v>12.6626</v>
-      </c>
-      <c r="G502" t="n">
-        <v>1906.517631317091</v>
-      </c>
-      <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>6160</v>
-      </c>
-      <c r="J502" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L502" t="n">
-        <v>1</v>
-      </c>
-      <c r="M502" t="inlineStr"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="n">
-        <v>6190</v>
-      </c>
-      <c r="C503" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D503" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E503" t="n">
-        <v>6190</v>
-      </c>
-      <c r="F503" t="n">
-        <v>151.5</v>
-      </c>
-      <c r="G503" t="n">
-        <v>2058.01763131709</v>
-      </c>
-      <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>6175</v>
-      </c>
-      <c r="J503" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L503" t="n">
-        <v>1</v>
-      </c>
-      <c r="M503" t="inlineStr"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>6195</v>
-      </c>
-      <c r="C504" t="n">
-        <v>6190</v>
-      </c>
-      <c r="D504" t="n">
-        <v>6195</v>
-      </c>
-      <c r="E504" t="n">
-        <v>6190</v>
-      </c>
-      <c r="F504" t="n">
-        <v>7.7631</v>
-      </c>
-      <c r="G504" t="n">
-        <v>2050.25453131709</v>
-      </c>
-      <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>6200</v>
-      </c>
-      <c r="J504" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L504" t="n">
-        <v>1</v>
-      </c>
-      <c r="M504" t="inlineStr"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C505" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D505" t="n">
-        <v>6200</v>
-      </c>
-      <c r="E505" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F505" t="n">
-        <v>277.7</v>
-      </c>
-      <c r="G505" t="n">
-        <v>2327.95453131709</v>
-      </c>
-      <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>6190</v>
-      </c>
-      <c r="J505" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L505" t="n">
-        <v>1</v>
-      </c>
-      <c r="M505" t="inlineStr"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>6210</v>
-      </c>
-      <c r="C506" t="n">
-        <v>6210</v>
-      </c>
-      <c r="D506" t="n">
-        <v>6210</v>
-      </c>
-      <c r="E506" t="n">
-        <v>6210</v>
-      </c>
-      <c r="F506" t="n">
-        <v>101</v>
-      </c>
-      <c r="G506" t="n">
-        <v>2428.95453131709</v>
-      </c>
-      <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>6200</v>
-      </c>
-      <c r="J506" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L506" t="n">
-        <v>1</v>
-      </c>
-      <c r="M506" t="inlineStr"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="n">
-        <v>6210</v>
-      </c>
-      <c r="C507" t="n">
-        <v>6210</v>
-      </c>
-      <c r="D507" t="n">
-        <v>6210</v>
-      </c>
-      <c r="E507" t="n">
-        <v>6210</v>
-      </c>
-      <c r="F507" t="n">
-        <v>24.9684</v>
-      </c>
-      <c r="G507" t="n">
-        <v>2428.95453131709</v>
-      </c>
-      <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>6210</v>
-      </c>
-      <c r="J507" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17421,19 +17729,11 @@
         <v>2074.99633131709</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>6210</v>
-      </c>
-      <c r="J508" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17462,19 +17762,11 @@
         <v>2102.09143131709</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>6185</v>
-      </c>
-      <c r="J509" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17503,19 +17795,11 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>6190</v>
-      </c>
-      <c r="J510" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17544,19 +17828,11 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J511" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17585,19 +17861,11 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J512" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17626,19 +17894,11 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J513" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17667,19 +17927,11 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J514" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17708,19 +17960,11 @@
         <v>1819.22133131709</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J515" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17749,19 +17993,11 @@
         <v>1349.86633131709</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>6190</v>
-      </c>
-      <c r="J516" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17790,19 +18026,11 @@
         <v>2311.68743131709</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>6180</v>
-      </c>
-      <c r="J517" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17831,19 +18059,11 @@
         <v>2311.68743131709</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>6190</v>
-      </c>
-      <c r="J518" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17872,19 +18092,11 @@
         <v>2329.91143131709</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>6190</v>
-      </c>
-      <c r="J519" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17913,19 +18125,11 @@
         <v>2329.91143131709</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J520" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17954,25 +18158,17 @@
         <v>2332.56443131709</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>6195</v>
-      </c>
-      <c r="J521" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
       <c r="M521" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ETC.xlsx
+++ b/BackTest/2020-01-13 BackTest ETC.xlsx
@@ -550,7 +550,7 @@
         <v>2254.65191854789</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2406.65191854789</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2432.29101854789</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2228.00731854789</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2253.00731854789</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2015.40731854789</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1302.22571854789</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1412.841364049367</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1551.471364049367</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1551.471364049367</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>4138.976585790264</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3592.830185790264</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3592.830185790264</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3604.079685790264</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3544.069985790264</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3631.790385790264</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>3551.778585790264</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3551.778585790264</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3535.559785790264</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3592.074885790264</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3585.574885790264</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3537.903485790263</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3437.903485790263</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>1966.894664779204</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>1820.740464779204</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>2239.153664779204</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>2176.105664779204</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>2049.862264779204</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2094.543464779204</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>2094.543464779204</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>2089.034064779204</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>2089.434064779204</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>2033.795264779204</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>2102.671964779204</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1997.471964779204</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>2075.474664779204</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2070.474664779204</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1937.337264779204</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1861.271764779204</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>1745.690764779205</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1718.973964779205</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1723.973964779205</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1621.263964779205</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9493,10 +9493,14 @@
         <v>1500.897964779205</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>6270</v>
+      </c>
+      <c r="J276" t="n">
+        <v>6270</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
@@ -9526,11 +9530,19 @@
         <v>1401.911964779204</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>6255</v>
+      </c>
+      <c r="J277" t="n">
+        <v>6270</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9571,19 @@
         <v>1401.911964779204</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>6250</v>
+      </c>
+      <c r="J278" t="n">
+        <v>6270</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,10 +9612,14 @@
         <v>1438.212464779205</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>6250</v>
+      </c>
+      <c r="J279" t="n">
+        <v>6250</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
@@ -9625,11 +9649,19 @@
         <v>1330.196664779205</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>6280</v>
+      </c>
+      <c r="J280" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9690,19 @@
         <v>1330.196664779205</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>6260</v>
+      </c>
+      <c r="J281" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +9734,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +9773,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +9812,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +9851,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +9890,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +9929,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +9968,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,15 +10004,17 @@
         <v>1294.985664779205</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>6260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>6260</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
+        <v>6250</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,17 +10043,15 @@
         <v>1292.985664779205</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>6260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L290" t="n">
@@ -10000,17 +10082,15 @@
         <v>1298.552864779205</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>6245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L291" t="n">
@@ -10041,15 +10121,17 @@
         <v>1278.260864779205</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>6260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>6260</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
+        <v>6250</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10078,17 +10160,15 @@
         <v>1240.985164779205</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>6255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L293" t="n">
@@ -10125,7 +10205,7 @@
         <v>6240</v>
       </c>
       <c r="J294" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10166,7 +10246,7 @@
         <v>6235</v>
       </c>
       <c r="J295" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10207,7 +10287,7 @@
         <v>6245</v>
       </c>
       <c r="J296" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10248,7 +10328,7 @@
         <v>6240</v>
       </c>
       <c r="J297" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10289,7 +10369,7 @@
         <v>6240</v>
       </c>
       <c r="J298" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10330,7 +10410,7 @@
         <v>6235</v>
       </c>
       <c r="J299" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10371,7 +10451,7 @@
         <v>6250</v>
       </c>
       <c r="J300" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10412,7 +10492,7 @@
         <v>6265</v>
       </c>
       <c r="J301" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10453,7 +10533,7 @@
         <v>6265</v>
       </c>
       <c r="J302" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10492,7 +10572,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10531,7 +10611,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10570,7 +10650,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10609,7 +10689,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10648,7 +10728,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10687,7 +10767,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10726,7 +10806,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10765,7 +10845,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10804,7 +10884,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10843,7 +10923,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10882,7 +10962,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10921,7 +11001,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10960,7 +11040,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -10999,7 +11079,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11038,7 +11118,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11077,7 +11157,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11116,7 +11196,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11155,7 +11235,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11194,7 +11274,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11233,7 +11313,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11272,7 +11352,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11311,7 +11391,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11346,13 +11426,11 @@
         <v>-1330.642935220796</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>6165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11391,7 +11469,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11430,7 +11508,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11465,11 +11543,13 @@
         <v>230.0181647792041</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>6210</v>
+      </c>
       <c r="J328" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11504,11 +11584,13 @@
         <v>381.0181647792041</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>6220</v>
+      </c>
       <c r="J329" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11547,7 +11629,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11586,7 +11668,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11625,7 +11707,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11664,7 +11746,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11703,7 +11785,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11742,7 +11824,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11781,7 +11863,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11820,7 +11902,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11859,7 +11941,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11898,7 +11980,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11937,7 +12019,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11976,7 +12058,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12015,7 +12097,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12054,7 +12136,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12093,7 +12175,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12132,7 +12214,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12171,7 +12253,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12210,7 +12292,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12249,7 +12331,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12288,7 +12370,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12327,7 +12409,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12366,7 +12448,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12405,7 +12487,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12444,7 +12526,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12483,7 +12565,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12522,7 +12604,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12561,7 +12643,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12600,7 +12682,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12639,7 +12721,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12678,7 +12760,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12717,7 +12799,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12756,7 +12838,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12795,7 +12877,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12834,7 +12916,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12873,7 +12955,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12912,7 +12994,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12951,7 +13033,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12990,7 +13072,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13029,7 +13111,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13068,7 +13150,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13107,7 +13189,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13146,7 +13228,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13185,7 +13267,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13224,7 +13306,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13263,7 +13345,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13298,19 +13380,19 @@
         <v>4805.483731317091</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L375" t="n">
-        <v>1.002188498402556</v>
+        <v>1</v>
       </c>
       <c r="M375" t="inlineStr"/>
     </row>
@@ -13337,11 +13419,17 @@
         <v>4805.483731317091</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13370,11 +13458,17 @@
         <v>5430.483731317091</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13403,11 +13497,17 @@
         <v>5383.208531317091</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13436,11 +13536,17 @@
         <v>6018.157431317091</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13472,8 +13578,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13502,11 +13614,17 @@
         <v>5931.540531317091</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13535,11 +13653,17 @@
         <v>5956.754031317091</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13568,11 +13692,17 @@
         <v>5951.754031317091</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13601,11 +13731,17 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13634,11 +13770,17 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13667,11 +13809,17 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13700,11 +13848,17 @@
         <v>5594.313831317091</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13736,8 +13890,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13769,8 +13929,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13802,8 +13968,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13832,11 +14004,17 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13865,11 +14043,17 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13898,11 +14082,17 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13931,11 +14121,17 @@
         <v>5600.64713131709</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13964,11 +14160,17 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13997,11 +14199,17 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14030,11 +14238,17 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14063,11 +14277,17 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14096,11 +14316,17 @@
         <v>5570.52613131709</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14129,11 +14355,17 @@
         <v>5570.52613131709</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14162,11 +14394,17 @@
         <v>5459.89423131709</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14195,11 +14433,17 @@
         <v>4515.89423131709</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14228,11 +14472,17 @@
         <v>4565.89423131709</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14261,11 +14511,17 @@
         <v>4517.31513131709</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14294,11 +14550,17 @@
         <v>3955.39293131709</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14327,11 +14589,17 @@
         <v>3955.39293131709</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14363,8 +14631,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14396,8 +14670,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14429,8 +14709,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14462,8 +14748,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14495,8 +14787,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14528,8 +14826,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14561,8 +14865,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14594,8 +14904,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14627,8 +14943,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14660,8 +14982,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14693,8 +15021,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14726,8 +15060,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14759,8 +15099,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14792,8 +15138,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14825,8 +15177,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14858,8 +15216,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14891,8 +15255,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14924,8 +15294,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14957,8 +15333,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14990,8 +15372,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15023,8 +15411,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15056,8 +15450,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15089,8 +15489,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15122,8 +15528,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15155,8 +15567,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15188,8 +15606,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15221,8 +15645,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15254,8 +15684,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15287,8 +15723,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15320,8 +15762,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15353,8 +15801,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15386,8 +15840,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15419,8 +15879,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15452,8 +15918,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15485,8 +15957,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15518,8 +15996,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15551,8 +16035,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15584,8 +16074,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15617,8 +16113,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15650,8 +16152,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15683,8 +16191,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15716,8 +16230,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15749,8 +16269,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15782,8 +16308,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15815,8 +16347,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15848,8 +16386,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15881,8 +16425,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15914,8 +16464,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15947,8 +16503,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15980,8 +16542,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16013,8 +16581,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16046,8 +16620,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16079,8 +16659,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16112,8 +16698,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16145,8 +16737,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16178,8 +16776,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16211,8 +16815,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16244,8 +16854,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16277,8 +16893,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16310,8 +16932,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16343,8 +16971,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16376,8 +17010,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16409,8 +17049,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16442,8 +17088,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16475,8 +17127,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16505,11 +17163,19 @@
         <v>1667.976231317091</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>6170</v>
+      </c>
+      <c r="J472" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16541,8 +17207,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16574,8 +17246,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16607,8 +17285,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16640,8 +17324,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16673,8 +17363,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16706,8 +17402,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16739,8 +17441,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16769,11 +17477,19 @@
         <v>2484.825331317091</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>6200</v>
+      </c>
+      <c r="J480" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16802,11 +17518,19 @@
         <v>2433.131931317091</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>6200</v>
+      </c>
+      <c r="J481" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16835,11 +17559,19 @@
         <v>2498.343031317091</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>6190</v>
+      </c>
+      <c r="J482" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16868,11 +17600,19 @@
         <v>2702.443031317091</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J483" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16901,11 +17641,19 @@
         <v>2706.022831317091</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>6205</v>
+      </c>
+      <c r="J484" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16937,8 +17685,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16970,8 +17724,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17003,8 +17763,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17033,11 +17799,19 @@
         <v>2686.060031317091</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>6235</v>
+      </c>
+      <c r="J488" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17066,11 +17840,19 @@
         <v>2410.874231317091</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>6225</v>
+      </c>
+      <c r="J489" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17099,11 +17881,19 @@
         <v>2312.874231317091</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>6210</v>
+      </c>
+      <c r="J490" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17132,11 +17922,19 @@
         <v>2322.92903131709</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>6200</v>
+      </c>
+      <c r="J491" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17165,11 +17963,19 @@
         <v>2302.38443131709</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>6225</v>
+      </c>
+      <c r="J492" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17198,11 +18004,19 @@
         <v>2360.08543131709</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>6220</v>
+      </c>
+      <c r="J493" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17234,8 +18048,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17264,11 +18084,19 @@
         <v>2338.19493131709</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>6235</v>
+      </c>
+      <c r="J495" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17297,11 +18125,19 @@
         <v>2181.059931317091</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>6205</v>
+      </c>
+      <c r="J496" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17330,11 +18166,19 @@
         <v>2181.059931317091</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J497" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17363,11 +18207,19 @@
         <v>2180.252131317091</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J498" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17396,11 +18248,19 @@
         <v>2018.791531317091</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>6190</v>
+      </c>
+      <c r="J499" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17429,11 +18289,19 @@
         <v>1875.030531317091</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>6180</v>
+      </c>
+      <c r="J500" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17462,11 +18330,19 @@
         <v>1893.855031317091</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>6155</v>
+      </c>
+      <c r="J501" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17501,9 +18377,13 @@
         <v>6160</v>
       </c>
       <c r="J502" t="n">
-        <v>6160</v>
-      </c>
-      <c r="K502" t="inlineStr"/>
+        <v>6250</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17538,11 +18418,11 @@
         <v>6175</v>
       </c>
       <c r="J503" t="n">
-        <v>6160</v>
+        <v>6250</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L503" t="n">
@@ -17579,11 +18459,11 @@
         <v>6200</v>
       </c>
       <c r="J504" t="n">
-        <v>6160</v>
+        <v>6250</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L504" t="n">
@@ -17620,9 +18500,13 @@
         <v>6190</v>
       </c>
       <c r="J505" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K505" t="inlineStr"/>
+        <v>6250</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17651,15 +18535,17 @@
         <v>2428.95453131709</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>6200</v>
+      </c>
       <c r="J506" t="n">
-        <v>6190</v>
+        <v>6250</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L506" t="n">
@@ -17690,15 +18576,17 @@
         <v>2428.95453131709</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>6210</v>
+      </c>
       <c r="J507" t="n">
-        <v>6190</v>
+        <v>6250</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L507" t="n">
@@ -17729,11 +18617,19 @@
         <v>2074.99633131709</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>6210</v>
+      </c>
+      <c r="J508" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17762,11 +18658,19 @@
         <v>2102.09143131709</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>6185</v>
+      </c>
+      <c r="J509" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17795,11 +18699,19 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>6190</v>
+      </c>
+      <c r="J510" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17828,11 +18740,19 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J511" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17861,11 +18781,19 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J512" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17894,11 +18822,19 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J513" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17927,11 +18863,19 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J514" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17960,11 +18904,19 @@
         <v>1819.22133131709</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J515" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17993,11 +18945,19 @@
         <v>1349.86633131709</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>6190</v>
+      </c>
+      <c r="J516" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18026,11 +18986,19 @@
         <v>2311.68743131709</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>6180</v>
+      </c>
+      <c r="J517" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18059,11 +19027,19 @@
         <v>2311.68743131709</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>6190</v>
+      </c>
+      <c r="J518" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18092,11 +19068,19 @@
         <v>2329.91143131709</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>6190</v>
+      </c>
+      <c r="J519" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18125,11 +19109,19 @@
         <v>2329.91143131709</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J520" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18158,11 +19150,19 @@
         <v>2332.56443131709</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>6195</v>
+      </c>
+      <c r="J521" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
